--- a/biology/Médecine/Maurice_Muret_(gynécologue)/Maurice_Muret_(gynécologue).xlsx
+++ b/biology/Médecine/Maurice_Muret_(gynécologue)/Maurice_Muret_(gynécologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maurice_Muret_(gyn%C3%A9cologue)</t>
+          <t>Maurice_Muret_(gynécologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Muret, né le 24 mai 1863 à Vevey et mort le 11 avril 1954 à Lausanne, est un gynécologue-obstétricien suisse.
 Il est professeur de gynécologie à l'Université de Lausanne de 1903 à 1926 et doyen de l'institution de 1924 à 1926.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maurice_Muret_(gyn%C3%A9cologue)</t>
+          <t>Maurice_Muret_(gynécologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +526,129 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et famille
-Maurice Muret naît le 24 mai 1863 à Vevey. Il est originaire de Morges[1].
-Le philologue Ernest Muret est son frère. Leur père, Jean-Édouard Muret, est médecin ; leur mère est née Sophie Ith. Leur grand-père est le conseiller d'État Jules Muret[1].
-Il épouse en 1904 Clarisse Auberjonois, fille d'un agronome et sœur du peintre René Auberjonois[1], qui meurt en 1939. Le conseiller national André Muret est leur fils[2] ; ils ont également une fille, Colette Muret, journaliste à la Gazette de Lausanne[3].
-Études et parcours professionnel
-Il fait des études de médecine à Berlin, Strasbourg et Bâle, où il obtient un doctorat en 1886. Il se spécialise ensuite en gynécologie et obstétrique en Angleterre, à Vienne et en Russie[1].
-Il s'établit en 1893 à Lausanne. Il est nommé la même année privat-docent à la faculté de médecine nouvellement fondée de l'Université de Lausanne[1]. Il y est professeur extraordinaire de gynécologie de 1903 à sa retraite en 1926[4] et doyen de 1924 à 1926[1].
-Autres activités et mandats
-Il développe une intense activité de propagandiste et de défenseur de diverses causes sociales (pour le suffrage féminin, pour la Société des Nations, pour l'aide aux mères célibataires)[1].
-Il préside l'Association des gynécologues et obstétriciens de langue française  de 1923 à 1927[1].
-Il est un membre actif de la Ligue vaudoise contre le péril vénérien et de la Société vaudoise des sages-femmes[1].
-Mort
-Il meurt le 11 avril 1954 à Lausanne, à l'âge de 90 ans[1], au terme d'une longue maladie[5].
+          <t>Origines et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Muret naît le 24 mai 1863 à Vevey. Il est originaire de Morges.
+Le philologue Ernest Muret est son frère. Leur père, Jean-Édouard Muret, est médecin ; leur mère est née Sophie Ith. Leur grand-père est le conseiller d'État Jules Muret.
+Il épouse en 1904 Clarisse Auberjonois, fille d'un agronome et sœur du peintre René Auberjonois, qui meurt en 1939. Le conseiller national André Muret est leur fils ; ils ont également une fille, Colette Muret, journaliste à la Gazette de Lausanne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maurice_Muret_(gynécologue)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Muret_(gyn%C3%A9cologue)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études et parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait des études de médecine à Berlin, Strasbourg et Bâle, où il obtient un doctorat en 1886. Il se spécialise ensuite en gynécologie et obstétrique en Angleterre, à Vienne et en Russie.
+Il s'établit en 1893 à Lausanne. Il est nommé la même année privat-docent à la faculté de médecine nouvellement fondée de l'Université de Lausanne. Il y est professeur extraordinaire de gynécologie de 1903 à sa retraite en 1926 et doyen de 1924 à 1926.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maurice_Muret_(gynécologue)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Muret_(gyn%C3%A9cologue)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres activités et mandats</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il développe une intense activité de propagandiste et de défenseur de diverses causes sociales (pour le suffrage féminin, pour la Société des Nations, pour l'aide aux mères célibataires).
+Il préside l'Association des gynécologues et obstétriciens de langue française  de 1923 à 1927.
+Il est un membre actif de la Ligue vaudoise contre le péril vénérien et de la Société vaudoise des sages-femmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maurice_Muret_(gynécologue)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Muret_(gyn%C3%A9cologue)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt le 11 avril 1954 à Lausanne, à l'âge de 90 ans, au terme d'une longue maladie.
 </t>
         </is>
       </c>
